--- a/contohdata.xlsx
+++ b/contohdata.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ci4\latip\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CUNTUL\Music\web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E295DA4-8255-448D-A42A-04C63AC93081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E6B88D1C-0E5E-4F0B-AD5F-59563D4761C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1605,7 +1604,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -1954,17 +1953,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971F7076-DC1F-4675-9CBF-4EE4E0C929C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A505" workbookViewId="0">
-      <selection activeCell="F511" sqref="F511"/>
+    <sheetView tabSelected="1" topLeftCell="A499" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1997,7 +1996,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>43710</v>
+        <v>43709</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2008,7 +2007,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>43711</v>
+        <v>43709</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2019,7 +2018,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>43712</v>
+        <v>43709</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2030,7 +2029,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>43713</v>
+        <v>43709</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2041,7 +2040,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1">
-        <v>43714</v>
+        <v>43709</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2052,7 +2051,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1">
-        <v>43715</v>
+        <v>43709</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2063,7 +2062,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>43716</v>
+        <v>43709</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2074,7 +2073,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>43717</v>
+        <v>43709</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2085,7 +2084,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1">
-        <v>43718</v>
+        <v>43709</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2096,7 +2095,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="1">
-        <v>43719</v>
+        <v>43709</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2107,7 +2106,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1">
-        <v>43720</v>
+        <v>43709</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2118,7 +2117,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>43721</v>
+        <v>43709</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2129,7 +2128,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="1">
-        <v>43722</v>
+        <v>43709</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2140,7 +2139,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>43723</v>
+        <v>43709</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2151,7 +2150,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="1">
-        <v>43724</v>
+        <v>43710</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2162,7 +2161,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="1">
-        <v>43725</v>
+        <v>43710</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2173,7 +2172,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="1">
-        <v>43726</v>
+        <v>43710</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2184,7 +2183,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="1">
-        <v>43727</v>
+        <v>43710</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2195,7 +2194,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="1">
-        <v>43728</v>
+        <v>43710</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2206,7 +2205,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="1">
-        <v>43729</v>
+        <v>43710</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2217,7 +2216,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="1">
-        <v>43730</v>
+        <v>43710</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2228,7 +2227,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="1">
-        <v>43731</v>
+        <v>43710</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2239,7 +2238,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="1">
-        <v>43732</v>
+        <v>43710</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2250,7 +2249,7 @@
         <v>27</v>
       </c>
       <c r="C26" s="1">
-        <v>43733</v>
+        <v>43710</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2261,7 +2260,7 @@
         <v>28</v>
       </c>
       <c r="C27" s="1">
-        <v>43734</v>
+        <v>43710</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2272,7 +2271,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="1">
-        <v>43735</v>
+        <v>43710</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2283,7 +2282,7 @@
         <v>30</v>
       </c>
       <c r="C29" s="1">
-        <v>43736</v>
+        <v>43710</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2294,7 +2293,7 @@
         <v>31</v>
       </c>
       <c r="C30" s="1">
-        <v>43737</v>
+        <v>43710</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2305,7 +2304,7 @@
         <v>32</v>
       </c>
       <c r="C31" s="1">
-        <v>43738</v>
+        <v>43710</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2316,7 +2315,7 @@
         <v>33</v>
       </c>
       <c r="C32" s="1">
-        <v>43739</v>
+        <v>43710</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2327,7 +2326,7 @@
         <v>34</v>
       </c>
       <c r="C33" s="1">
-        <v>43740</v>
+        <v>43710</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2338,7 +2337,7 @@
         <v>35</v>
       </c>
       <c r="C34" s="1">
-        <v>43741</v>
+        <v>43711</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2349,7 +2348,7 @@
         <v>36</v>
       </c>
       <c r="C35" s="1">
-        <v>43742</v>
+        <v>43711</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2360,7 +2359,7 @@
         <v>37</v>
       </c>
       <c r="C36" s="1">
-        <v>43743</v>
+        <v>43711</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2371,7 +2370,7 @@
         <v>38</v>
       </c>
       <c r="C37" s="1">
-        <v>43744</v>
+        <v>43711</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2382,7 +2381,7 @@
         <v>39</v>
       </c>
       <c r="C38" s="1">
-        <v>43745</v>
+        <v>43711</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2393,7 +2392,7 @@
         <v>40</v>
       </c>
       <c r="C39" s="1">
-        <v>43746</v>
+        <v>43711</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2404,7 +2403,7 @@
         <v>41</v>
       </c>
       <c r="C40" s="1">
-        <v>43747</v>
+        <v>43711</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2415,7 +2414,7 @@
         <v>42</v>
       </c>
       <c r="C41" s="1">
-        <v>43748</v>
+        <v>43711</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2426,7 +2425,7 @@
         <v>43</v>
       </c>
       <c r="C42" s="1">
-        <v>43749</v>
+        <v>43711</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2437,7 +2436,7 @@
         <v>44</v>
       </c>
       <c r="C43" s="1">
-        <v>43750</v>
+        <v>43711</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2448,7 +2447,7 @@
         <v>45</v>
       </c>
       <c r="C44" s="1">
-        <v>43751</v>
+        <v>43711</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2459,7 +2458,7 @@
         <v>46</v>
       </c>
       <c r="C45" s="1">
-        <v>43752</v>
+        <v>43711</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2470,7 +2469,7 @@
         <v>47</v>
       </c>
       <c r="C46" s="1">
-        <v>43753</v>
+        <v>43711</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2481,7 +2480,7 @@
         <v>48</v>
       </c>
       <c r="C47" s="1">
-        <v>43754</v>
+        <v>43711</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2492,7 +2491,7 @@
         <v>49</v>
       </c>
       <c r="C48" s="1">
-        <v>43755</v>
+        <v>43711</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2503,7 +2502,7 @@
         <v>50</v>
       </c>
       <c r="C49" s="1">
-        <v>43756</v>
+        <v>43711</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2514,7 +2513,7 @@
         <v>51</v>
       </c>
       <c r="C50" s="1">
-        <v>43757</v>
+        <v>43712</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2525,7 +2524,7 @@
         <v>52</v>
       </c>
       <c r="C51" s="1">
-        <v>43758</v>
+        <v>43712</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2536,7 +2535,7 @@
         <v>53</v>
       </c>
       <c r="C52" s="1">
-        <v>43759</v>
+        <v>43712</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2547,7 +2546,7 @@
         <v>54</v>
       </c>
       <c r="C53" s="1">
-        <v>43760</v>
+        <v>43712</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -2558,7 +2557,7 @@
         <v>55</v>
       </c>
       <c r="C54" s="1">
-        <v>43761</v>
+        <v>43712</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2569,7 +2568,7 @@
         <v>56</v>
       </c>
       <c r="C55" s="1">
-        <v>43762</v>
+        <v>43712</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2580,7 +2579,7 @@
         <v>57</v>
       </c>
       <c r="C56" s="1">
-        <v>43763</v>
+        <v>43712</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -2591,7 +2590,7 @@
         <v>58</v>
       </c>
       <c r="C57" s="1">
-        <v>43764</v>
+        <v>43712</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2602,7 +2601,7 @@
         <v>59</v>
       </c>
       <c r="C58" s="1">
-        <v>43765</v>
+        <v>43712</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2613,7 +2612,7 @@
         <v>60</v>
       </c>
       <c r="C59" s="1">
-        <v>43766</v>
+        <v>43712</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2624,7 +2623,7 @@
         <v>61</v>
       </c>
       <c r="C60" s="1">
-        <v>43767</v>
+        <v>43712</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -2635,7 +2634,7 @@
         <v>62</v>
       </c>
       <c r="C61" s="1">
-        <v>43768</v>
+        <v>43712</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -2646,7 +2645,7 @@
         <v>63</v>
       </c>
       <c r="C62" s="1">
-        <v>43769</v>
+        <v>43712</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -2657,7 +2656,7 @@
         <v>64</v>
       </c>
       <c r="C63" s="1">
-        <v>43770</v>
+        <v>43712</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -2668,7 +2667,7 @@
         <v>65</v>
       </c>
       <c r="C64" s="1">
-        <v>43771</v>
+        <v>43712</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2679,7 +2678,7 @@
         <v>66</v>
       </c>
       <c r="C65" s="1">
-        <v>43772</v>
+        <v>43712</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -2690,7 +2689,7 @@
         <v>67</v>
       </c>
       <c r="C66" s="1">
-        <v>43773</v>
+        <v>43712</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -2701,7 +2700,7 @@
         <v>68</v>
       </c>
       <c r="C67" s="1">
-        <v>43774</v>
+        <v>43713</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -2712,7 +2711,7 @@
         <v>69</v>
       </c>
       <c r="C68" s="1">
-        <v>43775</v>
+        <v>43713</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2723,7 +2722,7 @@
         <v>70</v>
       </c>
       <c r="C69" s="1">
-        <v>43776</v>
+        <v>43713</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2734,7 +2733,7 @@
         <v>71</v>
       </c>
       <c r="C70" s="1">
-        <v>43777</v>
+        <v>43713</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2745,7 +2744,7 @@
         <v>72</v>
       </c>
       <c r="C71" s="1">
-        <v>43778</v>
+        <v>43713</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2756,7 +2755,7 @@
         <v>17</v>
       </c>
       <c r="C72" s="1">
-        <v>43779</v>
+        <v>43713</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2767,7 +2766,7 @@
         <v>73</v>
       </c>
       <c r="C73" s="1">
-        <v>43780</v>
+        <v>43713</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2778,7 +2777,7 @@
         <v>74</v>
       </c>
       <c r="C74" s="1">
-        <v>43781</v>
+        <v>43713</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2789,7 +2788,7 @@
         <v>75</v>
       </c>
       <c r="C75" s="1">
-        <v>43782</v>
+        <v>43713</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2800,7 +2799,7 @@
         <v>76</v>
       </c>
       <c r="C76" s="1">
-        <v>43783</v>
+        <v>43713</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2811,7 +2810,7 @@
         <v>77</v>
       </c>
       <c r="C77" s="1">
-        <v>43784</v>
+        <v>43713</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2822,7 +2821,7 @@
         <v>78</v>
       </c>
       <c r="C78" s="1">
-        <v>43785</v>
+        <v>43713</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -2833,7 +2832,7 @@
         <v>79</v>
       </c>
       <c r="C79" s="1">
-        <v>43786</v>
+        <v>43713</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2844,7 +2843,7 @@
         <v>80</v>
       </c>
       <c r="C80" s="1">
-        <v>43787</v>
+        <v>43713</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2855,7 +2854,7 @@
         <v>81</v>
       </c>
       <c r="C81" s="1">
-        <v>43788</v>
+        <v>43713</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2866,7 +2865,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="1">
-        <v>43789</v>
+        <v>43713</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2877,7 +2876,7 @@
         <v>83</v>
       </c>
       <c r="C83" s="1">
-        <v>43790</v>
+        <v>43713</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2888,7 +2887,7 @@
         <v>84</v>
       </c>
       <c r="C84" s="1">
-        <v>43791</v>
+        <v>43714</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2899,7 +2898,7 @@
         <v>85</v>
       </c>
       <c r="C85" s="1">
-        <v>43792</v>
+        <v>43714</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2910,7 +2909,7 @@
         <v>86</v>
       </c>
       <c r="C86" s="1">
-        <v>43793</v>
+        <v>43714</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2921,7 +2920,7 @@
         <v>87</v>
       </c>
       <c r="C87" s="1">
-        <v>43794</v>
+        <v>43714</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -2932,7 +2931,7 @@
         <v>88</v>
       </c>
       <c r="C88" s="1">
-        <v>43795</v>
+        <v>43714</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2943,7 +2942,7 @@
         <v>89</v>
       </c>
       <c r="C89" s="1">
-        <v>43796</v>
+        <v>43714</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2954,7 +2953,7 @@
         <v>90</v>
       </c>
       <c r="C90" s="1">
-        <v>43797</v>
+        <v>43714</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2965,7 +2964,7 @@
         <v>91</v>
       </c>
       <c r="C91" s="1">
-        <v>43798</v>
+        <v>43714</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2976,7 +2975,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="1">
-        <v>43799</v>
+        <v>43714</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2987,7 +2986,7 @@
         <v>93</v>
       </c>
       <c r="C93" s="1">
-        <v>43800</v>
+        <v>43714</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2998,7 +2997,7 @@
         <v>94</v>
       </c>
       <c r="C94" s="1">
-        <v>43801</v>
+        <v>43714</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -3009,7 +3008,7 @@
         <v>95</v>
       </c>
       <c r="C95" s="1">
-        <v>43802</v>
+        <v>43714</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -3020,7 +3019,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="1">
-        <v>43803</v>
+        <v>43714</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -3031,7 +3030,7 @@
         <v>97</v>
       </c>
       <c r="C97" s="1">
-        <v>43804</v>
+        <v>43714</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -3042,7 +3041,7 @@
         <v>98</v>
       </c>
       <c r="C98" s="1">
-        <v>43805</v>
+        <v>43714</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -3053,7 +3052,7 @@
         <v>99</v>
       </c>
       <c r="C99" s="1">
-        <v>43806</v>
+        <v>43714</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -3064,7 +3063,7 @@
         <v>100</v>
       </c>
       <c r="C100" s="1">
-        <v>43807</v>
+        <v>43714</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -3075,7 +3074,7 @@
         <v>101</v>
       </c>
       <c r="C101" s="1">
-        <v>43808</v>
+        <v>43715</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -3086,7 +3085,7 @@
         <v>102</v>
       </c>
       <c r="C102" s="1">
-        <v>43809</v>
+        <v>43715</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -3097,7 +3096,7 @@
         <v>103</v>
       </c>
       <c r="C103" s="1">
-        <v>43810</v>
+        <v>43715</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -3108,7 +3107,7 @@
         <v>104</v>
       </c>
       <c r="C104" s="1">
-        <v>43811</v>
+        <v>43715</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -3119,7 +3118,7 @@
         <v>105</v>
       </c>
       <c r="C105" s="1">
-        <v>43812</v>
+        <v>43715</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -3130,7 +3129,7 @@
         <v>106</v>
       </c>
       <c r="C106" s="1">
-        <v>43813</v>
+        <v>43715</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -3141,7 +3140,7 @@
         <v>107</v>
       </c>
       <c r="C107" s="1">
-        <v>43814</v>
+        <v>43715</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -3152,7 +3151,7 @@
         <v>108</v>
       </c>
       <c r="C108" s="1">
-        <v>43815</v>
+        <v>43715</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -3163,7 +3162,7 @@
         <v>109</v>
       </c>
       <c r="C109" s="1">
-        <v>43816</v>
+        <v>43715</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -3174,7 +3173,7 @@
         <v>110</v>
       </c>
       <c r="C110" s="1">
-        <v>43817</v>
+        <v>43715</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -3185,7 +3184,7 @@
         <v>111</v>
       </c>
       <c r="C111" s="1">
-        <v>43818</v>
+        <v>43715</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -3196,7 +3195,7 @@
         <v>112</v>
       </c>
       <c r="C112" s="1">
-        <v>43819</v>
+        <v>43715</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -3207,7 +3206,7 @@
         <v>113</v>
       </c>
       <c r="C113" s="1">
-        <v>43820</v>
+        <v>43715</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -3218,7 +3217,7 @@
         <v>114</v>
       </c>
       <c r="C114" s="1">
-        <v>43821</v>
+        <v>43715</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -3229,7 +3228,7 @@
         <v>115</v>
       </c>
       <c r="C115" s="1">
-        <v>43822</v>
+        <v>43715</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -3240,7 +3239,7 @@
         <v>116</v>
       </c>
       <c r="C116" s="1">
-        <v>43823</v>
+        <v>43715</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -3251,7 +3250,7 @@
         <v>117</v>
       </c>
       <c r="C117" s="1">
-        <v>43824</v>
+        <v>43715</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -3262,7 +3261,7 @@
         <v>118</v>
       </c>
       <c r="C118" s="1">
-        <v>43825</v>
+        <v>43716</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -3273,7 +3272,7 @@
         <v>119</v>
       </c>
       <c r="C119" s="1">
-        <v>43826</v>
+        <v>43716</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -3284,7 +3283,7 @@
         <v>120</v>
       </c>
       <c r="C120" s="1">
-        <v>43827</v>
+        <v>43716</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -3295,7 +3294,7 @@
         <v>121</v>
       </c>
       <c r="C121" s="1">
-        <v>43828</v>
+        <v>43716</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -3306,7 +3305,7 @@
         <v>122</v>
       </c>
       <c r="C122" s="1">
-        <v>43829</v>
+        <v>43716</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -3317,7 +3316,7 @@
         <v>123</v>
       </c>
       <c r="C123" s="1">
-        <v>43830</v>
+        <v>43716</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -3328,7 +3327,7 @@
         <v>124</v>
       </c>
       <c r="C124" s="1">
-        <v>43831</v>
+        <v>43716</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -3339,7 +3338,7 @@
         <v>125</v>
       </c>
       <c r="C125" s="1">
-        <v>43832</v>
+        <v>43716</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -3350,7 +3349,7 @@
         <v>126</v>
       </c>
       <c r="C126" s="1">
-        <v>43833</v>
+        <v>43716</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -3361,7 +3360,7 @@
         <v>127</v>
       </c>
       <c r="C127" s="1">
-        <v>43834</v>
+        <v>43716</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -3372,7 +3371,7 @@
         <v>128</v>
       </c>
       <c r="C128" s="1">
-        <v>43835</v>
+        <v>43716</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -3383,7 +3382,7 @@
         <v>129</v>
       </c>
       <c r="C129" s="1">
-        <v>43836</v>
+        <v>43716</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -3394,7 +3393,7 @@
         <v>130</v>
       </c>
       <c r="C130" s="1">
-        <v>43837</v>
+        <v>43716</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -3405,7 +3404,7 @@
         <v>131</v>
       </c>
       <c r="C131" s="1">
-        <v>43838</v>
+        <v>43716</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -3416,7 +3415,7 @@
         <v>132</v>
       </c>
       <c r="C132" s="1">
-        <v>43839</v>
+        <v>43716</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -3427,7 +3426,7 @@
         <v>133</v>
       </c>
       <c r="C133" s="1">
-        <v>43840</v>
+        <v>43716</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -3438,7 +3437,7 @@
         <v>134</v>
       </c>
       <c r="C134" s="1">
-        <v>43841</v>
+        <v>43717</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -3449,7 +3448,7 @@
         <v>135</v>
       </c>
       <c r="C135" s="1">
-        <v>43842</v>
+        <v>43717</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -3460,7 +3459,7 @@
         <v>136</v>
       </c>
       <c r="C136" s="1">
-        <v>43843</v>
+        <v>43717</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -3471,7 +3470,7 @@
         <v>137</v>
       </c>
       <c r="C137" s="1">
-        <v>43844</v>
+        <v>43717</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -3482,7 +3481,7 @@
         <v>138</v>
       </c>
       <c r="C138" s="1">
-        <v>43845</v>
+        <v>43717</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -3493,7 +3492,7 @@
         <v>139</v>
       </c>
       <c r="C139" s="1">
-        <v>43846</v>
+        <v>43717</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -3504,7 +3503,7 @@
         <v>140</v>
       </c>
       <c r="C140" s="1">
-        <v>43847</v>
+        <v>43717</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -3515,7 +3514,7 @@
         <v>141</v>
       </c>
       <c r="C141" s="1">
-        <v>43848</v>
+        <v>43717</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -3526,7 +3525,7 @@
         <v>142</v>
       </c>
       <c r="C142" s="1">
-        <v>43849</v>
+        <v>43717</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -3537,7 +3536,7 @@
         <v>143</v>
       </c>
       <c r="C143" s="1">
-        <v>43850</v>
+        <v>43717</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -3548,7 +3547,7 @@
         <v>144</v>
       </c>
       <c r="C144" s="1">
-        <v>43851</v>
+        <v>43717</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -3559,7 +3558,7 @@
         <v>145</v>
       </c>
       <c r="C145" s="1">
-        <v>43852</v>
+        <v>43717</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -3570,7 +3569,7 @@
         <v>146</v>
       </c>
       <c r="C146" s="1">
-        <v>43853</v>
+        <v>43717</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -3581,7 +3580,7 @@
         <v>147</v>
       </c>
       <c r="C147" s="1">
-        <v>43854</v>
+        <v>43717</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -3592,7 +3591,7 @@
         <v>148</v>
       </c>
       <c r="C148" s="1">
-        <v>43855</v>
+        <v>43717</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -3603,7 +3602,7 @@
         <v>149</v>
       </c>
       <c r="C149" s="1">
-        <v>43856</v>
+        <v>43717</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -3614,7 +3613,7 @@
         <v>150</v>
       </c>
       <c r="C150" s="1">
-        <v>43857</v>
+        <v>43717</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -3625,7 +3624,7 @@
         <v>151</v>
       </c>
       <c r="C151" s="1">
-        <v>43858</v>
+        <v>43718</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -3636,7 +3635,7 @@
         <v>152</v>
       </c>
       <c r="C152" s="1">
-        <v>43859</v>
+        <v>43718</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -3647,7 +3646,7 @@
         <v>153</v>
       </c>
       <c r="C153" s="1">
-        <v>43860</v>
+        <v>43718</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -3658,7 +3657,7 @@
         <v>154</v>
       </c>
       <c r="C154" s="1">
-        <v>43861</v>
+        <v>43718</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -3669,7 +3668,7 @@
         <v>155</v>
       </c>
       <c r="C155" s="1">
-        <v>43862</v>
+        <v>43718</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -3680,7 +3679,7 @@
         <v>156</v>
       </c>
       <c r="C156" s="1">
-        <v>43863</v>
+        <v>43718</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -3691,7 +3690,7 @@
         <v>157</v>
       </c>
       <c r="C157" s="1">
-        <v>43864</v>
+        <v>43718</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -3702,7 +3701,7 @@
         <v>158</v>
       </c>
       <c r="C158" s="1">
-        <v>43865</v>
+        <v>43718</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -3713,7 +3712,7 @@
         <v>159</v>
       </c>
       <c r="C159" s="1">
-        <v>43866</v>
+        <v>43718</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -3724,7 +3723,7 @@
         <v>160</v>
       </c>
       <c r="C160" s="1">
-        <v>43867</v>
+        <v>43718</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -3735,7 +3734,7 @@
         <v>161</v>
       </c>
       <c r="C161" s="1">
-        <v>43868</v>
+        <v>43718</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -3746,7 +3745,7 @@
         <v>162</v>
       </c>
       <c r="C162" s="1">
-        <v>43869</v>
+        <v>43718</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -3757,7 +3756,7 @@
         <v>163</v>
       </c>
       <c r="C163" s="1">
-        <v>43870</v>
+        <v>43718</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -3768,7 +3767,7 @@
         <v>164</v>
       </c>
       <c r="C164" s="1">
-        <v>43871</v>
+        <v>43718</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -3779,7 +3778,7 @@
         <v>165</v>
       </c>
       <c r="C165" s="1">
-        <v>43872</v>
+        <v>43718</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -3790,7 +3789,7 @@
         <v>166</v>
       </c>
       <c r="C166" s="1">
-        <v>43873</v>
+        <v>43719</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -3801,7 +3800,7 @@
         <v>167</v>
       </c>
       <c r="C167" s="1">
-        <v>43874</v>
+        <v>43719</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -3812,7 +3811,7 @@
         <v>168</v>
       </c>
       <c r="C168" s="1">
-        <v>43875</v>
+        <v>43719</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -3823,7 +3822,7 @@
         <v>169</v>
       </c>
       <c r="C169" s="1">
-        <v>43876</v>
+        <v>43719</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -3834,7 +3833,7 @@
         <v>170</v>
       </c>
       <c r="C170" s="1">
-        <v>43877</v>
+        <v>43719</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -3845,7 +3844,7 @@
         <v>171</v>
       </c>
       <c r="C171" s="1">
-        <v>43878</v>
+        <v>43719</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -3856,7 +3855,7 @@
         <v>172</v>
       </c>
       <c r="C172" s="1">
-        <v>43879</v>
+        <v>43719</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -3867,7 +3866,7 @@
         <v>173</v>
       </c>
       <c r="C173" s="1">
-        <v>43880</v>
+        <v>43719</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -3878,7 +3877,7 @@
         <v>174</v>
       </c>
       <c r="C174" s="1">
-        <v>43881</v>
+        <v>43719</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -3889,7 +3888,7 @@
         <v>175</v>
       </c>
       <c r="C175" s="1">
-        <v>43882</v>
+        <v>43719</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -3900,7 +3899,7 @@
         <v>176</v>
       </c>
       <c r="C176" s="1">
-        <v>43883</v>
+        <v>43719</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -3911,7 +3910,7 @@
         <v>177</v>
       </c>
       <c r="C177" s="1">
-        <v>43884</v>
+        <v>43719</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -3922,7 +3921,7 @@
         <v>178</v>
       </c>
       <c r="C178" s="1">
-        <v>43885</v>
+        <v>43719</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -3933,7 +3932,7 @@
         <v>179</v>
       </c>
       <c r="C179" s="1">
-        <v>43886</v>
+        <v>43719</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -3944,7 +3943,7 @@
         <v>180</v>
       </c>
       <c r="C180" s="1">
-        <v>43887</v>
+        <v>43719</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -3955,7 +3954,7 @@
         <v>181</v>
       </c>
       <c r="C181" s="1">
-        <v>43888</v>
+        <v>43719</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -3966,7 +3965,7 @@
         <v>182</v>
       </c>
       <c r="C182" s="1">
-        <v>43889</v>
+        <v>43719</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -3977,7 +3976,7 @@
         <v>183</v>
       </c>
       <c r="C183" s="1">
-        <v>43890</v>
+        <v>43720</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -3988,7 +3987,7 @@
         <v>184</v>
       </c>
       <c r="C184" s="1">
-        <v>43891</v>
+        <v>43720</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -3999,7 +3998,7 @@
         <v>185</v>
       </c>
       <c r="C185" s="1">
-        <v>43892</v>
+        <v>43720</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -4010,7 +4009,7 @@
         <v>186</v>
       </c>
       <c r="C186" s="1">
-        <v>43893</v>
+        <v>43720</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -4021,7 +4020,7 @@
         <v>187</v>
       </c>
       <c r="C187" s="1">
-        <v>43894</v>
+        <v>43720</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -4032,7 +4031,7 @@
         <v>188</v>
       </c>
       <c r="C188" s="1">
-        <v>43895</v>
+        <v>43720</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -4043,7 +4042,7 @@
         <v>189</v>
       </c>
       <c r="C189" s="1">
-        <v>43896</v>
+        <v>43720</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -4054,7 +4053,7 @@
         <v>190</v>
       </c>
       <c r="C190" s="1">
-        <v>43897</v>
+        <v>43720</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -4065,7 +4064,7 @@
         <v>191</v>
       </c>
       <c r="C191" s="1">
-        <v>43898</v>
+        <v>43720</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -4076,7 +4075,7 @@
         <v>67</v>
       </c>
       <c r="C192" s="1">
-        <v>43899</v>
+        <v>43720</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -4087,7 +4086,7 @@
         <v>192</v>
       </c>
       <c r="C193" s="1">
-        <v>43900</v>
+        <v>43720</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -4098,7 +4097,7 @@
         <v>193</v>
       </c>
       <c r="C194" s="1">
-        <v>43901</v>
+        <v>43720</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -4109,7 +4108,7 @@
         <v>194</v>
       </c>
       <c r="C195" s="1">
-        <v>43902</v>
+        <v>43720</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -4120,7 +4119,7 @@
         <v>195</v>
       </c>
       <c r="C196" s="1">
-        <v>43903</v>
+        <v>43720</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -4131,7 +4130,7 @@
         <v>196</v>
       </c>
       <c r="C197" s="1">
-        <v>43904</v>
+        <v>43720</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -4142,7 +4141,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="1">
-        <v>43905</v>
+        <v>43720</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -4153,7 +4152,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="1">
-        <v>43906</v>
+        <v>43721</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -4164,7 +4163,7 @@
         <v>199</v>
       </c>
       <c r="C200" s="1">
-        <v>43907</v>
+        <v>43721</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -4175,7 +4174,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="1">
-        <v>43908</v>
+        <v>43721</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -4186,7 +4185,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="1">
-        <v>43909</v>
+        <v>43721</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -4197,7 +4196,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="1">
-        <v>43910</v>
+        <v>43721</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -4208,7 +4207,7 @@
         <v>203</v>
       </c>
       <c r="C204" s="1">
-        <v>43911</v>
+        <v>43721</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -4219,7 +4218,7 @@
         <v>204</v>
       </c>
       <c r="C205" s="1">
-        <v>43912</v>
+        <v>43721</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -4230,7 +4229,7 @@
         <v>205</v>
       </c>
       <c r="C206" s="1">
-        <v>43913</v>
+        <v>43721</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -4241,7 +4240,7 @@
         <v>206</v>
       </c>
       <c r="C207" s="1">
-        <v>43914</v>
+        <v>43721</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -4252,7 +4251,7 @@
         <v>207</v>
       </c>
       <c r="C208" s="1">
-        <v>43915</v>
+        <v>43721</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -4263,7 +4262,7 @@
         <v>208</v>
       </c>
       <c r="C209" s="1">
-        <v>43916</v>
+        <v>43721</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -4274,7 +4273,7 @@
         <v>209</v>
       </c>
       <c r="C210" s="1">
-        <v>43917</v>
+        <v>43721</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -4285,7 +4284,7 @@
         <v>210</v>
       </c>
       <c r="C211" s="1">
-        <v>43918</v>
+        <v>43721</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -4296,7 +4295,7 @@
         <v>211</v>
       </c>
       <c r="C212" s="1">
-        <v>43919</v>
+        <v>43721</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -4307,7 +4306,7 @@
         <v>212</v>
       </c>
       <c r="C213" s="1">
-        <v>43920</v>
+        <v>43721</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -4318,7 +4317,7 @@
         <v>213</v>
       </c>
       <c r="C214" s="1">
-        <v>43921</v>
+        <v>43722</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -4329,7 +4328,7 @@
         <v>214</v>
       </c>
       <c r="C215" s="1">
-        <v>43922</v>
+        <v>43722</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -4340,7 +4339,7 @@
         <v>215</v>
       </c>
       <c r="C216" s="1">
-        <v>43923</v>
+        <v>43722</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -4351,7 +4350,7 @@
         <v>216</v>
       </c>
       <c r="C217" s="1">
-        <v>43924</v>
+        <v>43722</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -4362,7 +4361,7 @@
         <v>217</v>
       </c>
       <c r="C218" s="1">
-        <v>43925</v>
+        <v>43722</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -4373,7 +4372,7 @@
         <v>218</v>
       </c>
       <c r="C219" s="1">
-        <v>43926</v>
+        <v>43722</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -4384,7 +4383,7 @@
         <v>219</v>
       </c>
       <c r="C220" s="1">
-        <v>43927</v>
+        <v>43722</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -4395,7 +4394,7 @@
         <v>220</v>
       </c>
       <c r="C221" s="1">
-        <v>43928</v>
+        <v>43722</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -4406,7 +4405,7 @@
         <v>221</v>
       </c>
       <c r="C222" s="1">
-        <v>43929</v>
+        <v>43722</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -4417,7 +4416,7 @@
         <v>222</v>
       </c>
       <c r="C223" s="1">
-        <v>43930</v>
+        <v>43722</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -4428,7 +4427,7 @@
         <v>223</v>
       </c>
       <c r="C224" s="1">
-        <v>43931</v>
+        <v>43722</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -4439,7 +4438,7 @@
         <v>224</v>
       </c>
       <c r="C225" s="1">
-        <v>43932</v>
+        <v>43722</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -4450,7 +4449,7 @@
         <v>225</v>
       </c>
       <c r="C226" s="1">
-        <v>43933</v>
+        <v>43722</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -4461,7 +4460,7 @@
         <v>226</v>
       </c>
       <c r="C227" s="1">
-        <v>43934</v>
+        <v>43722</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -4472,7 +4471,7 @@
         <v>227</v>
       </c>
       <c r="C228" s="1">
-        <v>43935</v>
+        <v>43722</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -4483,7 +4482,7 @@
         <v>228</v>
       </c>
       <c r="C229" s="1">
-        <v>43936</v>
+        <v>43722</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -4494,7 +4493,7 @@
         <v>229</v>
       </c>
       <c r="C230" s="1">
-        <v>43937</v>
+        <v>43723</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -4505,7 +4504,7 @@
         <v>230</v>
       </c>
       <c r="C231" s="1">
-        <v>43938</v>
+        <v>43723</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -4516,7 +4515,7 @@
         <v>231</v>
       </c>
       <c r="C232" s="1">
-        <v>43939</v>
+        <v>43723</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -4527,7 +4526,7 @@
         <v>232</v>
       </c>
       <c r="C233" s="1">
-        <v>43940</v>
+        <v>43723</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -4538,7 +4537,7 @@
         <v>233</v>
       </c>
       <c r="C234" s="1">
-        <v>43941</v>
+        <v>43723</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -4549,7 +4548,7 @@
         <v>234</v>
       </c>
       <c r="C235" s="1">
-        <v>43942</v>
+        <v>43723</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -4560,7 +4559,7 @@
         <v>235</v>
       </c>
       <c r="C236" s="1">
-        <v>43943</v>
+        <v>43723</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -4571,7 +4570,7 @@
         <v>236</v>
       </c>
       <c r="C237" s="1">
-        <v>43944</v>
+        <v>43723</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -4582,7 +4581,7 @@
         <v>237</v>
       </c>
       <c r="C238" s="1">
-        <v>43945</v>
+        <v>43723</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -4593,7 +4592,7 @@
         <v>238</v>
       </c>
       <c r="C239" s="1">
-        <v>43946</v>
+        <v>43723</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -4604,7 +4603,7 @@
         <v>239</v>
       </c>
       <c r="C240" s="1">
-        <v>43947</v>
+        <v>43723</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -4615,7 +4614,7 @@
         <v>240</v>
       </c>
       <c r="C241" s="1">
-        <v>43948</v>
+        <v>43723</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -4626,7 +4625,7 @@
         <v>241</v>
       </c>
       <c r="C242" s="1">
-        <v>43949</v>
+        <v>43723</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -4637,7 +4636,7 @@
         <v>242</v>
       </c>
       <c r="C243" s="1">
-        <v>43950</v>
+        <v>43723</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -4648,7 +4647,7 @@
         <v>243</v>
       </c>
       <c r="C244" s="1">
-        <v>43951</v>
+        <v>43723</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -4659,7 +4658,7 @@
         <v>244</v>
       </c>
       <c r="C245" s="1">
-        <v>43952</v>
+        <v>43723</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -4670,7 +4669,7 @@
         <v>245</v>
       </c>
       <c r="C246" s="1">
-        <v>43953</v>
+        <v>43723</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -4681,7 +4680,7 @@
         <v>246</v>
       </c>
       <c r="C247" s="1">
-        <v>43954</v>
+        <v>43724</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -4692,7 +4691,7 @@
         <v>247</v>
       </c>
       <c r="C248" s="1">
-        <v>43955</v>
+        <v>43724</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -4703,7 +4702,7 @@
         <v>248</v>
       </c>
       <c r="C249" s="1">
-        <v>43956</v>
+        <v>43724</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -4714,7 +4713,7 @@
         <v>249</v>
       </c>
       <c r="C250" s="1">
-        <v>43957</v>
+        <v>43724</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -4725,7 +4724,7 @@
         <v>250</v>
       </c>
       <c r="C251" s="1">
-        <v>43958</v>
+        <v>43724</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -4736,7 +4735,7 @@
         <v>251</v>
       </c>
       <c r="C252" s="1">
-        <v>43959</v>
+        <v>43724</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -4747,7 +4746,7 @@
         <v>252</v>
       </c>
       <c r="C253" s="1">
-        <v>43960</v>
+        <v>43724</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -4758,7 +4757,7 @@
         <v>253</v>
       </c>
       <c r="C254" s="1">
-        <v>43961</v>
+        <v>43724</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -4769,7 +4768,7 @@
         <v>254</v>
       </c>
       <c r="C255" s="1">
-        <v>43962</v>
+        <v>43724</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -4780,7 +4779,7 @@
         <v>255</v>
       </c>
       <c r="C256" s="1">
-        <v>43963</v>
+        <v>43724</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -4791,7 +4790,7 @@
         <v>256</v>
       </c>
       <c r="C257" s="1">
-        <v>43964</v>
+        <v>43724</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -4802,7 +4801,7 @@
         <v>257</v>
       </c>
       <c r="C258" s="1">
-        <v>43965</v>
+        <v>43724</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -4813,7 +4812,7 @@
         <v>258</v>
       </c>
       <c r="C259" s="1">
-        <v>43966</v>
+        <v>43724</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -4824,7 +4823,7 @@
         <v>259</v>
       </c>
       <c r="C260" s="1">
-        <v>43967</v>
+        <v>43724</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -4835,7 +4834,7 @@
         <v>260</v>
       </c>
       <c r="C261" s="1">
-        <v>43968</v>
+        <v>43724</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -4846,7 +4845,7 @@
         <v>261</v>
       </c>
       <c r="C262" s="1">
-        <v>43969</v>
+        <v>43725</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -4857,7 +4856,7 @@
         <v>262</v>
       </c>
       <c r="C263" s="1">
-        <v>43970</v>
+        <v>43725</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -4868,7 +4867,7 @@
         <v>263</v>
       </c>
       <c r="C264" s="1">
-        <v>43971</v>
+        <v>43725</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -4879,7 +4878,7 @@
         <v>264</v>
       </c>
       <c r="C265" s="1">
-        <v>43972</v>
+        <v>43725</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -4890,7 +4889,7 @@
         <v>265</v>
       </c>
       <c r="C266" s="1">
-        <v>43973</v>
+        <v>43725</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -4901,7 +4900,7 @@
         <v>266</v>
       </c>
       <c r="C267" s="1">
-        <v>43974</v>
+        <v>43725</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -4912,7 +4911,7 @@
         <v>267</v>
       </c>
       <c r="C268" s="1">
-        <v>43975</v>
+        <v>43725</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -4923,7 +4922,7 @@
         <v>268</v>
       </c>
       <c r="C269" s="1">
-        <v>43976</v>
+        <v>43725</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -4934,7 +4933,7 @@
         <v>269</v>
       </c>
       <c r="C270" s="1">
-        <v>43977</v>
+        <v>43725</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -4945,7 +4944,7 @@
         <v>270</v>
       </c>
       <c r="C271" s="1">
-        <v>43978</v>
+        <v>43725</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -4956,7 +4955,7 @@
         <v>271</v>
       </c>
       <c r="C272" s="1">
-        <v>43979</v>
+        <v>43725</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -4967,7 +4966,7 @@
         <v>272</v>
       </c>
       <c r="C273" s="1">
-        <v>43980</v>
+        <v>43725</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -4978,7 +4977,7 @@
         <v>273</v>
       </c>
       <c r="C274" s="1">
-        <v>43981</v>
+        <v>43725</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -4989,7 +4988,7 @@
         <v>274</v>
       </c>
       <c r="C275" s="1">
-        <v>43982</v>
+        <v>43725</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -5000,7 +4999,7 @@
         <v>275</v>
       </c>
       <c r="C276" s="1">
-        <v>43983</v>
+        <v>43725</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -5011,7 +5010,7 @@
         <v>276</v>
       </c>
       <c r="C277" s="1">
-        <v>43984</v>
+        <v>43725</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -5022,7 +5021,7 @@
         <v>277</v>
       </c>
       <c r="C278" s="1">
-        <v>43985</v>
+        <v>43726</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -5033,7 +5032,7 @@
         <v>278</v>
       </c>
       <c r="C279" s="1">
-        <v>43986</v>
+        <v>43726</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -5044,7 +5043,7 @@
         <v>279</v>
       </c>
       <c r="C280" s="1">
-        <v>43987</v>
+        <v>43726</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -5055,7 +5054,7 @@
         <v>280</v>
       </c>
       <c r="C281" s="1">
-        <v>43988</v>
+        <v>43726</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -5066,7 +5065,7 @@
         <v>281</v>
       </c>
       <c r="C282" s="1">
-        <v>43989</v>
+        <v>43726</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -5077,7 +5076,7 @@
         <v>282</v>
       </c>
       <c r="C283" s="1">
-        <v>43990</v>
+        <v>43726</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -5088,7 +5087,7 @@
         <v>283</v>
       </c>
       <c r="C284" s="1">
-        <v>43991</v>
+        <v>43726</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -5099,7 +5098,7 @@
         <v>284</v>
       </c>
       <c r="C285" s="1">
-        <v>43992</v>
+        <v>43726</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -5110,7 +5109,7 @@
         <v>285</v>
       </c>
       <c r="C286" s="1">
-        <v>43993</v>
+        <v>43726</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -5121,7 +5120,7 @@
         <v>286</v>
       </c>
       <c r="C287" s="1">
-        <v>43994</v>
+        <v>43726</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -5132,7 +5131,7 @@
         <v>287</v>
       </c>
       <c r="C288" s="1">
-        <v>43995</v>
+        <v>43726</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -5143,7 +5142,7 @@
         <v>288</v>
       </c>
       <c r="C289" s="1">
-        <v>43996</v>
+        <v>43726</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -5154,7 +5153,7 @@
         <v>289</v>
       </c>
       <c r="C290" s="1">
-        <v>43997</v>
+        <v>43726</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -5165,7 +5164,7 @@
         <v>290</v>
       </c>
       <c r="C291" s="1">
-        <v>43998</v>
+        <v>43726</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -5176,7 +5175,7 @@
         <v>291</v>
       </c>
       <c r="C292" s="1">
-        <v>43999</v>
+        <v>43726</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -5187,7 +5186,7 @@
         <v>292</v>
       </c>
       <c r="C293" s="1">
-        <v>44000</v>
+        <v>43726</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -5198,7 +5197,7 @@
         <v>293</v>
       </c>
       <c r="C294" s="1">
-        <v>44001</v>
+        <v>43726</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -5209,7 +5208,7 @@
         <v>294</v>
       </c>
       <c r="C295" s="1">
-        <v>44002</v>
+        <v>43727</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -5220,7 +5219,7 @@
         <v>295</v>
       </c>
       <c r="C296" s="1">
-        <v>44003</v>
+        <v>43727</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -5231,7 +5230,7 @@
         <v>296</v>
       </c>
       <c r="C297" s="1">
-        <v>44004</v>
+        <v>43727</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -5242,7 +5241,7 @@
         <v>297</v>
       </c>
       <c r="C298" s="1">
-        <v>44005</v>
+        <v>43727</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -5253,7 +5252,7 @@
         <v>298</v>
       </c>
       <c r="C299" s="1">
-        <v>44006</v>
+        <v>43727</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -5264,7 +5263,7 @@
         <v>299</v>
       </c>
       <c r="C300" s="1">
-        <v>44007</v>
+        <v>43727</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -5275,7 +5274,7 @@
         <v>300</v>
       </c>
       <c r="C301" s="1">
-        <v>44008</v>
+        <v>43727</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -5286,7 +5285,7 @@
         <v>301</v>
       </c>
       <c r="C302" s="1">
-        <v>44009</v>
+        <v>43727</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -5297,7 +5296,7 @@
         <v>302</v>
       </c>
       <c r="C303" s="1">
-        <v>44010</v>
+        <v>43727</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -5308,7 +5307,7 @@
         <v>303</v>
       </c>
       <c r="C304" s="1">
-        <v>44011</v>
+        <v>43727</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -5319,7 +5318,7 @@
         <v>304</v>
       </c>
       <c r="C305" s="1">
-        <v>44012</v>
+        <v>43727</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -5330,7 +5329,7 @@
         <v>305</v>
       </c>
       <c r="C306" s="1">
-        <v>44013</v>
+        <v>43727</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -5341,7 +5340,7 @@
         <v>306</v>
       </c>
       <c r="C307" s="1">
-        <v>44014</v>
+        <v>43727</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -5352,7 +5351,7 @@
         <v>307</v>
       </c>
       <c r="C308" s="1">
-        <v>44015</v>
+        <v>43728</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -5363,7 +5362,7 @@
         <v>308</v>
       </c>
       <c r="C309" s="1">
-        <v>44016</v>
+        <v>43728</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -5374,7 +5373,7 @@
         <v>309</v>
       </c>
       <c r="C310" s="1">
-        <v>44017</v>
+        <v>43728</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -5385,7 +5384,7 @@
         <v>310</v>
       </c>
       <c r="C311" s="1">
-        <v>44018</v>
+        <v>43728</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -5396,7 +5395,7 @@
         <v>311</v>
       </c>
       <c r="C312" s="1">
-        <v>44019</v>
+        <v>43728</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -5407,7 +5406,7 @@
         <v>312</v>
       </c>
       <c r="C313" s="1">
-        <v>44020</v>
+        <v>43728</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -5418,7 +5417,7 @@
         <v>313</v>
       </c>
       <c r="C314" s="1">
-        <v>44021</v>
+        <v>43728</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -5429,7 +5428,7 @@
         <v>314</v>
       </c>
       <c r="C315" s="1">
-        <v>44022</v>
+        <v>43728</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -5440,7 +5439,7 @@
         <v>315</v>
       </c>
       <c r="C316" s="1">
-        <v>44023</v>
+        <v>43728</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -5451,7 +5450,7 @@
         <v>316</v>
       </c>
       <c r="C317" s="1">
-        <v>44024</v>
+        <v>43728</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -5462,7 +5461,7 @@
         <v>317</v>
       </c>
       <c r="C318" s="1">
-        <v>44025</v>
+        <v>43728</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -5473,7 +5472,7 @@
         <v>318</v>
       </c>
       <c r="C319" s="1">
-        <v>44026</v>
+        <v>43728</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -5484,7 +5483,7 @@
         <v>319</v>
       </c>
       <c r="C320" s="1">
-        <v>44027</v>
+        <v>43728</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -5495,7 +5494,7 @@
         <v>320</v>
       </c>
       <c r="C321" s="1">
-        <v>44028</v>
+        <v>43728</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -5506,7 +5505,7 @@
         <v>321</v>
       </c>
       <c r="C322" s="1">
-        <v>44029</v>
+        <v>43728</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -5517,7 +5516,7 @@
         <v>322</v>
       </c>
       <c r="C323" s="1">
-        <v>44030</v>
+        <v>43729</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -5528,7 +5527,7 @@
         <v>323</v>
       </c>
       <c r="C324" s="1">
-        <v>44031</v>
+        <v>43729</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -5539,7 +5538,7 @@
         <v>324</v>
       </c>
       <c r="C325" s="1">
-        <v>44032</v>
+        <v>43729</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -5550,7 +5549,7 @@
         <v>325</v>
       </c>
       <c r="C326" s="1">
-        <v>44033</v>
+        <v>43729</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -5561,7 +5560,7 @@
         <v>326</v>
       </c>
       <c r="C327" s="1">
-        <v>44034</v>
+        <v>43729</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -5572,7 +5571,7 @@
         <v>327</v>
       </c>
       <c r="C328" s="1">
-        <v>44035</v>
+        <v>43729</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -5583,7 +5582,7 @@
         <v>328</v>
       </c>
       <c r="C329" s="1">
-        <v>44036</v>
+        <v>43729</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -5594,7 +5593,7 @@
         <v>329</v>
       </c>
       <c r="C330" s="1">
-        <v>44037</v>
+        <v>43729</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -5605,7 +5604,7 @@
         <v>330</v>
       </c>
       <c r="C331" s="1">
-        <v>44038</v>
+        <v>43729</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -5616,7 +5615,7 @@
         <v>331</v>
       </c>
       <c r="C332" s="1">
-        <v>44039</v>
+        <v>43729</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -5627,7 +5626,7 @@
         <v>332</v>
       </c>
       <c r="C333" s="1">
-        <v>44040</v>
+        <v>43729</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -5638,7 +5637,7 @@
         <v>333</v>
       </c>
       <c r="C334" s="1">
-        <v>44041</v>
+        <v>43729</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -5649,7 +5648,7 @@
         <v>334</v>
       </c>
       <c r="C335" s="1">
-        <v>44042</v>
+        <v>43729</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -5660,7 +5659,7 @@
         <v>335</v>
       </c>
       <c r="C336" s="1">
-        <v>44043</v>
+        <v>43729</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -5671,7 +5670,7 @@
         <v>336</v>
       </c>
       <c r="C337" s="1">
-        <v>44044</v>
+        <v>43729</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -5682,7 +5681,7 @@
         <v>337</v>
       </c>
       <c r="C338" s="1">
-        <v>44045</v>
+        <v>43729</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -5693,7 +5692,7 @@
         <v>338</v>
       </c>
       <c r="C339" s="1">
-        <v>44046</v>
+        <v>43729</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -5704,7 +5703,7 @@
         <v>339</v>
       </c>
       <c r="C340" s="1">
-        <v>44047</v>
+        <v>43730</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -5715,7 +5714,7 @@
         <v>340</v>
       </c>
       <c r="C341" s="1">
-        <v>44048</v>
+        <v>43730</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -5726,7 +5725,7 @@
         <v>341</v>
       </c>
       <c r="C342" s="1">
-        <v>44049</v>
+        <v>43730</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -5737,7 +5736,7 @@
         <v>342</v>
       </c>
       <c r="C343" s="1">
-        <v>44050</v>
+        <v>43730</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -5748,7 +5747,7 @@
         <v>343</v>
       </c>
       <c r="C344" s="1">
-        <v>44051</v>
+        <v>43730</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -5759,7 +5758,7 @@
         <v>344</v>
       </c>
       <c r="C345" s="1">
-        <v>44052</v>
+        <v>43730</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -5770,7 +5769,7 @@
         <v>345</v>
       </c>
       <c r="C346" s="1">
-        <v>44053</v>
+        <v>43730</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -5781,7 +5780,7 @@
         <v>346</v>
       </c>
       <c r="C347" s="1">
-        <v>44054</v>
+        <v>43730</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -5792,7 +5791,7 @@
         <v>347</v>
       </c>
       <c r="C348" s="1">
-        <v>44055</v>
+        <v>43730</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -5803,7 +5802,7 @@
         <v>348</v>
       </c>
       <c r="C349" s="1">
-        <v>44056</v>
+        <v>43730</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -5814,7 +5813,7 @@
         <v>349</v>
       </c>
       <c r="C350" s="1">
-        <v>44057</v>
+        <v>43730</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -5825,7 +5824,7 @@
         <v>350</v>
       </c>
       <c r="C351" s="1">
-        <v>44058</v>
+        <v>43730</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -5836,7 +5835,7 @@
         <v>351</v>
       </c>
       <c r="C352" s="1">
-        <v>44059</v>
+        <v>43730</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -5847,7 +5846,7 @@
         <v>141</v>
       </c>
       <c r="C353" s="1">
-        <v>44060</v>
+        <v>43730</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -5858,7 +5857,7 @@
         <v>352</v>
       </c>
       <c r="C354" s="1">
-        <v>44061</v>
+        <v>43730</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -5869,7 +5868,7 @@
         <v>353</v>
       </c>
       <c r="C355" s="1">
-        <v>44062</v>
+        <v>43730</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -5880,7 +5879,7 @@
         <v>354</v>
       </c>
       <c r="C356" s="1">
-        <v>44063</v>
+        <v>43730</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -5891,7 +5890,7 @@
         <v>355</v>
       </c>
       <c r="C357" s="1">
-        <v>44064</v>
+        <v>43731</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -5902,7 +5901,7 @@
         <v>356</v>
       </c>
       <c r="C358" s="1">
-        <v>44065</v>
+        <v>43731</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -5913,7 +5912,7 @@
         <v>357</v>
       </c>
       <c r="C359" s="1">
-        <v>44066</v>
+        <v>43731</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -5924,7 +5923,7 @@
         <v>358</v>
       </c>
       <c r="C360" s="1">
-        <v>44067</v>
+        <v>43731</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -5935,7 +5934,7 @@
         <v>359</v>
       </c>
       <c r="C361" s="1">
-        <v>44068</v>
+        <v>43731</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -5946,7 +5945,7 @@
         <v>360</v>
       </c>
       <c r="C362" s="1">
-        <v>44069</v>
+        <v>43731</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -5957,7 +5956,7 @@
         <v>361</v>
       </c>
       <c r="C363" s="1">
-        <v>44070</v>
+        <v>43731</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -5968,7 +5967,7 @@
         <v>362</v>
       </c>
       <c r="C364" s="1">
-        <v>44071</v>
+        <v>43731</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -5979,7 +5978,7 @@
         <v>363</v>
       </c>
       <c r="C365" s="1">
-        <v>44072</v>
+        <v>43731</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -5990,7 +5989,7 @@
         <v>297</v>
       </c>
       <c r="C366" s="1">
-        <v>44073</v>
+        <v>43731</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -6001,7 +6000,7 @@
         <v>364</v>
       </c>
       <c r="C367" s="1">
-        <v>44074</v>
+        <v>43731</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -6012,7 +6011,7 @@
         <v>365</v>
       </c>
       <c r="C368" s="1">
-        <v>44075</v>
+        <v>43731</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -6023,7 +6022,7 @@
         <v>366</v>
       </c>
       <c r="C369" s="1">
-        <v>44076</v>
+        <v>43731</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -6034,7 +6033,7 @@
         <v>367</v>
       </c>
       <c r="C370" s="1">
-        <v>44077</v>
+        <v>43731</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -6045,7 +6044,7 @@
         <v>368</v>
       </c>
       <c r="C371" s="1">
-        <v>44078</v>
+        <v>43731</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -6056,7 +6055,7 @@
         <v>369</v>
       </c>
       <c r="C372" s="1">
-        <v>44079</v>
+        <v>43732</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -6067,7 +6066,7 @@
         <v>370</v>
       </c>
       <c r="C373" s="1">
-        <v>44080</v>
+        <v>43732</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -6078,7 +6077,7 @@
         <v>371</v>
       </c>
       <c r="C374" s="1">
-        <v>44081</v>
+        <v>43732</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -6089,7 +6088,7 @@
         <v>372</v>
       </c>
       <c r="C375" s="1">
-        <v>44082</v>
+        <v>43732</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -6100,7 +6099,7 @@
         <v>373</v>
       </c>
       <c r="C376" s="1">
-        <v>44083</v>
+        <v>43732</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -6111,7 +6110,7 @@
         <v>374</v>
       </c>
       <c r="C377" s="1">
-        <v>44084</v>
+        <v>43732</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -6122,7 +6121,7 @@
         <v>375</v>
       </c>
       <c r="C378" s="1">
-        <v>44085</v>
+        <v>43732</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -6133,7 +6132,7 @@
         <v>376</v>
       </c>
       <c r="C379" s="1">
-        <v>44086</v>
+        <v>43732</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -6144,7 +6143,7 @@
         <v>377</v>
       </c>
       <c r="C380" s="1">
-        <v>44087</v>
+        <v>43732</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -6155,7 +6154,7 @@
         <v>378</v>
       </c>
       <c r="C381" s="1">
-        <v>44088</v>
+        <v>43732</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -6166,7 +6165,7 @@
         <v>379</v>
       </c>
       <c r="C382" s="1">
-        <v>44089</v>
+        <v>43732</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -6177,7 +6176,7 @@
         <v>380</v>
       </c>
       <c r="C383" s="1">
-        <v>44090</v>
+        <v>43732</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -6188,7 +6187,7 @@
         <v>381</v>
       </c>
       <c r="C384" s="1">
-        <v>44091</v>
+        <v>43732</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -6199,7 +6198,7 @@
         <v>382</v>
       </c>
       <c r="C385" s="1">
-        <v>44092</v>
+        <v>43732</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -6210,7 +6209,7 @@
         <v>383</v>
       </c>
       <c r="C386" s="1">
-        <v>44093</v>
+        <v>43732</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -6221,7 +6220,7 @@
         <v>384</v>
       </c>
       <c r="C387" s="1">
-        <v>44094</v>
+        <v>43732</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -6232,7 +6231,7 @@
         <v>385</v>
       </c>
       <c r="C388" s="1">
-        <v>44095</v>
+        <v>43732</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -6243,7 +6242,7 @@
         <v>386</v>
       </c>
       <c r="C389" s="1">
-        <v>44096</v>
+        <v>43733</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -6254,7 +6253,7 @@
         <v>387</v>
       </c>
       <c r="C390" s="1">
-        <v>44097</v>
+        <v>43733</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -6265,7 +6264,7 @@
         <v>388</v>
       </c>
       <c r="C391" s="1">
-        <v>44098</v>
+        <v>43733</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -6276,7 +6275,7 @@
         <v>389</v>
       </c>
       <c r="C392" s="1">
-        <v>44099</v>
+        <v>43733</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -6287,7 +6286,7 @@
         <v>390</v>
       </c>
       <c r="C393" s="1">
-        <v>44100</v>
+        <v>43733</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -6298,7 +6297,7 @@
         <v>391</v>
       </c>
       <c r="C394" s="1">
-        <v>44101</v>
+        <v>43733</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -6309,7 +6308,7 @@
         <v>392</v>
       </c>
       <c r="C395" s="1">
-        <v>44102</v>
+        <v>43733</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -6320,7 +6319,7 @@
         <v>393</v>
       </c>
       <c r="C396" s="1">
-        <v>44103</v>
+        <v>43733</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -6331,7 +6330,7 @@
         <v>394</v>
       </c>
       <c r="C397" s="1">
-        <v>44104</v>
+        <v>43733</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -6342,7 +6341,7 @@
         <v>395</v>
       </c>
       <c r="C398" s="1">
-        <v>44105</v>
+        <v>43733</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -6353,7 +6352,7 @@
         <v>396</v>
       </c>
       <c r="C399" s="1">
-        <v>44106</v>
+        <v>43733</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -6364,7 +6363,7 @@
         <v>397</v>
       </c>
       <c r="C400" s="1">
-        <v>44107</v>
+        <v>43733</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -6375,7 +6374,7 @@
         <v>398</v>
       </c>
       <c r="C401" s="1">
-        <v>44108</v>
+        <v>43733</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -6386,7 +6385,7 @@
         <v>399</v>
       </c>
       <c r="C402" s="1">
-        <v>44109</v>
+        <v>43733</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -6397,7 +6396,7 @@
         <v>400</v>
       </c>
       <c r="C403" s="1">
-        <v>44110</v>
+        <v>43733</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -6408,7 +6407,7 @@
         <v>401</v>
       </c>
       <c r="C404" s="1">
-        <v>44111</v>
+        <v>43733</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -6419,7 +6418,7 @@
         <v>402</v>
       </c>
       <c r="C405" s="1">
-        <v>44112</v>
+        <v>43733</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -6430,7 +6429,7 @@
         <v>403</v>
       </c>
       <c r="C406" s="1">
-        <v>44113</v>
+        <v>43733</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -6441,7 +6440,7 @@
         <v>404</v>
       </c>
       <c r="C407" s="1">
-        <v>44114</v>
+        <v>43733</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -6452,7 +6451,7 @@
         <v>405</v>
       </c>
       <c r="C408" s="1">
-        <v>44115</v>
+        <v>43733</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -6463,7 +6462,7 @@
         <v>406</v>
       </c>
       <c r="C409" s="1">
-        <v>44116</v>
+        <v>43734</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -6474,7 +6473,7 @@
         <v>407</v>
       </c>
       <c r="C410" s="1">
-        <v>44117</v>
+        <v>43734</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -6485,7 +6484,7 @@
         <v>408</v>
       </c>
       <c r="C411" s="1">
-        <v>44118</v>
+        <v>43734</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -6496,7 +6495,7 @@
         <v>409</v>
       </c>
       <c r="C412" s="1">
-        <v>44119</v>
+        <v>43734</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -6507,7 +6506,7 @@
         <v>410</v>
       </c>
       <c r="C413" s="1">
-        <v>44120</v>
+        <v>43734</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -6518,7 +6517,7 @@
         <v>411</v>
       </c>
       <c r="C414" s="1">
-        <v>44121</v>
+        <v>43734</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -6529,7 +6528,7 @@
         <v>412</v>
       </c>
       <c r="C415" s="1">
-        <v>44122</v>
+        <v>43734</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -6540,7 +6539,7 @@
         <v>413</v>
       </c>
       <c r="C416" s="1">
-        <v>44123</v>
+        <v>43734</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -6551,7 +6550,7 @@
         <v>414</v>
       </c>
       <c r="C417" s="1">
-        <v>44124</v>
+        <v>43734</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -6562,7 +6561,7 @@
         <v>415</v>
       </c>
       <c r="C418" s="1">
-        <v>44125</v>
+        <v>43734</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -6573,7 +6572,7 @@
         <v>416</v>
       </c>
       <c r="C419" s="1">
-        <v>44126</v>
+        <v>43734</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -6584,7 +6583,7 @@
         <v>417</v>
       </c>
       <c r="C420" s="1">
-        <v>44127</v>
+        <v>43734</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -6595,7 +6594,7 @@
         <v>418</v>
       </c>
       <c r="C421" s="1">
-        <v>44128</v>
+        <v>43734</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -6606,7 +6605,7 @@
         <v>419</v>
       </c>
       <c r="C422" s="1">
-        <v>44129</v>
+        <v>43734</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -6617,7 +6616,7 @@
         <v>420</v>
       </c>
       <c r="C423" s="1">
-        <v>44130</v>
+        <v>43734</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -6628,7 +6627,7 @@
         <v>421</v>
       </c>
       <c r="C424" s="1">
-        <v>44131</v>
+        <v>43734</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -6639,7 +6638,7 @@
         <v>422</v>
       </c>
       <c r="C425" s="1">
-        <v>44132</v>
+        <v>43734</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -6650,7 +6649,7 @@
         <v>423</v>
       </c>
       <c r="C426" s="1">
-        <v>44133</v>
+        <v>43734</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -6661,7 +6660,7 @@
         <v>424</v>
       </c>
       <c r="C427" s="1">
-        <v>44134</v>
+        <v>43734</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -6672,7 +6671,7 @@
         <v>425</v>
       </c>
       <c r="C428" s="1">
-        <v>44135</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -6683,7 +6682,7 @@
         <v>426</v>
       </c>
       <c r="C429" s="1">
-        <v>44136</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -6694,7 +6693,7 @@
         <v>427</v>
       </c>
       <c r="C430" s="1">
-        <v>44137</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -6705,7 +6704,7 @@
         <v>428</v>
       </c>
       <c r="C431" s="1">
-        <v>44138</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -6716,7 +6715,7 @@
         <v>429</v>
       </c>
       <c r="C432" s="1">
-        <v>44139</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -6727,7 +6726,7 @@
         <v>430</v>
       </c>
       <c r="C433" s="1">
-        <v>44140</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -6738,7 +6737,7 @@
         <v>431</v>
       </c>
       <c r="C434" s="1">
-        <v>44141</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -6749,7 +6748,7 @@
         <v>432</v>
       </c>
       <c r="C435" s="1">
-        <v>44142</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -6760,7 +6759,7 @@
         <v>433</v>
       </c>
       <c r="C436" s="1">
-        <v>44143</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -6771,7 +6770,7 @@
         <v>434</v>
       </c>
       <c r="C437" s="1">
-        <v>44144</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -6782,7 +6781,7 @@
         <v>435</v>
       </c>
       <c r="C438" s="1">
-        <v>44145</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -6793,7 +6792,7 @@
         <v>436</v>
       </c>
       <c r="C439" s="1">
-        <v>44146</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -6804,7 +6803,7 @@
         <v>437</v>
       </c>
       <c r="C440" s="1">
-        <v>44147</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -6815,7 +6814,7 @@
         <v>438</v>
       </c>
       <c r="C441" s="1">
-        <v>44148</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -6826,7 +6825,7 @@
         <v>439</v>
       </c>
       <c r="C442" s="1">
-        <v>44149</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -6837,7 +6836,7 @@
         <v>440</v>
       </c>
       <c r="C443" s="1">
-        <v>44150</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -6848,7 +6847,7 @@
         <v>441</v>
       </c>
       <c r="C444" s="1">
-        <v>44151</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -6859,7 +6858,7 @@
         <v>442</v>
       </c>
       <c r="C445" s="1">
-        <v>44152</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -6870,7 +6869,7 @@
         <v>443</v>
       </c>
       <c r="C446" s="1">
-        <v>44153</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -6881,7 +6880,7 @@
         <v>444</v>
       </c>
       <c r="C447" s="1">
-        <v>44154</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -6892,7 +6891,7 @@
         <v>445</v>
       </c>
       <c r="C448" s="1">
-        <v>44155</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -6903,7 +6902,7 @@
         <v>446</v>
       </c>
       <c r="C449" s="1">
-        <v>44156</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -6914,7 +6913,7 @@
         <v>447</v>
       </c>
       <c r="C450" s="1">
-        <v>44157</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -6925,7 +6924,7 @@
         <v>448</v>
       </c>
       <c r="C451" s="1">
-        <v>44158</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -6936,7 +6935,7 @@
         <v>449</v>
       </c>
       <c r="C452" s="1">
-        <v>44159</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -6947,7 +6946,7 @@
         <v>450</v>
       </c>
       <c r="C453" s="1">
-        <v>44160</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -6958,7 +6957,7 @@
         <v>451</v>
       </c>
       <c r="C454" s="1">
-        <v>44161</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -6969,7 +6968,7 @@
         <v>452</v>
       </c>
       <c r="C455" s="1">
-        <v>44162</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -6980,7 +6979,7 @@
         <v>453</v>
       </c>
       <c r="C456" s="1">
-        <v>44163</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -6991,7 +6990,7 @@
         <v>454</v>
       </c>
       <c r="C457" s="1">
-        <v>44164</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -7002,7 +7001,7 @@
         <v>455</v>
       </c>
       <c r="C458" s="1">
-        <v>44165</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -7013,7 +7012,7 @@
         <v>456</v>
       </c>
       <c r="C459" s="1">
-        <v>44166</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -7024,7 +7023,7 @@
         <v>457</v>
       </c>
       <c r="C460" s="1">
-        <v>44167</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -7035,7 +7034,7 @@
         <v>458</v>
       </c>
       <c r="C461" s="1">
-        <v>44168</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -7046,7 +7045,7 @@
         <v>459</v>
       </c>
       <c r="C462" s="1">
-        <v>44169</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -7057,7 +7056,7 @@
         <v>460</v>
       </c>
       <c r="C463" s="1">
-        <v>44170</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -7068,7 +7067,7 @@
         <v>461</v>
       </c>
       <c r="C464" s="1">
-        <v>44171</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -7079,7 +7078,7 @@
         <v>136</v>
       </c>
       <c r="C465" s="1">
-        <v>44172</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -7090,7 +7089,7 @@
         <v>462</v>
       </c>
       <c r="C466" s="1">
-        <v>44173</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -7101,7 +7100,7 @@
         <v>463</v>
       </c>
       <c r="C467" s="1">
-        <v>44174</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
@@ -7112,7 +7111,7 @@
         <v>464</v>
       </c>
       <c r="C468" s="1">
-        <v>44175</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -7123,7 +7122,7 @@
         <v>465</v>
       </c>
       <c r="C469" s="1">
-        <v>44176</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -7134,7 +7133,7 @@
         <v>466</v>
       </c>
       <c r="C470" s="1">
-        <v>44177</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
@@ -7145,7 +7144,7 @@
         <v>467</v>
       </c>
       <c r="C471" s="1">
-        <v>44178</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -7156,7 +7155,7 @@
         <v>468</v>
       </c>
       <c r="C472" s="1">
-        <v>44179</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
@@ -7167,7 +7166,7 @@
         <v>469</v>
       </c>
       <c r="C473" s="1">
-        <v>44180</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -7178,7 +7177,7 @@
         <v>470</v>
       </c>
       <c r="C474" s="1">
-        <v>44181</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
@@ -7189,7 +7188,7 @@
         <v>471</v>
       </c>
       <c r="C475" s="1">
-        <v>44182</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
@@ -7200,7 +7199,7 @@
         <v>472</v>
       </c>
       <c r="C476" s="1">
-        <v>44183</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
@@ -7211,7 +7210,7 @@
         <v>473</v>
       </c>
       <c r="C477" s="1">
-        <v>44184</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -7222,7 +7221,7 @@
         <v>474</v>
       </c>
       <c r="C478" s="1">
-        <v>44185</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
@@ -7233,7 +7232,7 @@
         <v>475</v>
       </c>
       <c r="C479" s="1">
-        <v>44186</v>
+        <v>43737</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
@@ -7244,7 +7243,7 @@
         <v>476</v>
       </c>
       <c r="C480" s="1">
-        <v>44187</v>
+        <v>43737</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -7255,7 +7254,7 @@
         <v>477</v>
       </c>
       <c r="C481" s="1">
-        <v>44188</v>
+        <v>43737</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -7266,7 +7265,7 @@
         <v>478</v>
       </c>
       <c r="C482" s="1">
-        <v>44189</v>
+        <v>43737</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -7277,7 +7276,7 @@
         <v>479</v>
       </c>
       <c r="C483" s="1">
-        <v>44190</v>
+        <v>43737</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
@@ -7288,7 +7287,7 @@
         <v>480</v>
       </c>
       <c r="C484" s="1">
-        <v>44191</v>
+        <v>43737</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -7299,7 +7298,7 @@
         <v>481</v>
       </c>
       <c r="C485" s="1">
-        <v>44192</v>
+        <v>43737</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -7310,7 +7309,7 @@
         <v>482</v>
       </c>
       <c r="C486" s="1">
-        <v>44193</v>
+        <v>43737</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
@@ -7321,7 +7320,7 @@
         <v>483</v>
       </c>
       <c r="C487" s="1">
-        <v>44194</v>
+        <v>43737</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -7332,7 +7331,7 @@
         <v>484</v>
       </c>
       <c r="C488" s="1">
-        <v>44195</v>
+        <v>43737</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -7343,7 +7342,7 @@
         <v>485</v>
       </c>
       <c r="C489" s="1">
-        <v>44196</v>
+        <v>43737</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -7354,7 +7353,7 @@
         <v>486</v>
       </c>
       <c r="C490" s="1">
-        <v>44197</v>
+        <v>43737</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
@@ -7365,7 +7364,7 @@
         <v>487</v>
       </c>
       <c r="C491" s="1">
-        <v>44198</v>
+        <v>43737</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
@@ -7376,7 +7375,7 @@
         <v>488</v>
       </c>
       <c r="C492" s="1">
-        <v>44199</v>
+        <v>43737</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -7387,7 +7386,7 @@
         <v>489</v>
       </c>
       <c r="C493" s="1">
-        <v>44200</v>
+        <v>43737</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -7398,7 +7397,7 @@
         <v>490</v>
       </c>
       <c r="C494" s="1">
-        <v>44201</v>
+        <v>43737</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -7409,7 +7408,7 @@
         <v>491</v>
       </c>
       <c r="C495" s="1">
-        <v>44202</v>
+        <v>43737</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -7420,7 +7419,7 @@
         <v>492</v>
       </c>
       <c r="C496" s="1">
-        <v>44203</v>
+        <v>43737</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -7431,7 +7430,7 @@
         <v>493</v>
       </c>
       <c r="C497" s="1">
-        <v>44204</v>
+        <v>43737</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -7442,7 +7441,7 @@
         <v>494</v>
       </c>
       <c r="C498" s="1">
-        <v>44205</v>
+        <v>43737</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -7453,7 +7452,7 @@
         <v>495</v>
       </c>
       <c r="C499" s="1">
-        <v>44206</v>
+        <v>43737</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -7464,7 +7463,7 @@
         <v>496</v>
       </c>
       <c r="C500" s="1">
-        <v>44207</v>
+        <v>43737</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -7475,7 +7474,7 @@
         <v>497</v>
       </c>
       <c r="C501" s="1">
-        <v>44208</v>
+        <v>43737</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -7486,7 +7485,7 @@
         <v>498</v>
       </c>
       <c r="C502" s="1">
-        <v>44209</v>
+        <v>43737</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -7497,7 +7496,7 @@
         <v>499</v>
       </c>
       <c r="C503" s="1">
-        <v>44210</v>
+        <v>43737</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -7508,7 +7507,7 @@
         <v>500</v>
       </c>
       <c r="C504" s="1">
-        <v>44211</v>
+        <v>43737</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -7519,7 +7518,7 @@
         <v>501</v>
       </c>
       <c r="C505" s="1">
-        <v>44212</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -7530,7 +7529,7 @@
         <v>502</v>
       </c>
       <c r="C506" s="1">
-        <v>44213</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -7541,7 +7540,7 @@
         <v>503</v>
       </c>
       <c r="C507" s="1">
-        <v>44214</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -7552,7 +7551,7 @@
         <v>504</v>
       </c>
       <c r="C508" s="1">
-        <v>44215</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -7563,7 +7562,7 @@
         <v>505</v>
       </c>
       <c r="C509" s="1">
-        <v>44216</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -7574,7 +7573,7 @@
         <v>506</v>
       </c>
       <c r="C510" s="1">
-        <v>44217</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -7585,7 +7584,7 @@
         <v>507</v>
       </c>
       <c r="C511" s="1">
-        <v>44218</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -7596,7 +7595,7 @@
         <v>508</v>
       </c>
       <c r="C512" s="1">
-        <v>44219</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
@@ -7607,7 +7606,7 @@
         <v>509</v>
       </c>
       <c r="C513" s="1">
-        <v>44220</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -7618,7 +7617,7 @@
         <v>510</v>
       </c>
       <c r="C514" s="1">
-        <v>44221</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
@@ -7629,7 +7628,7 @@
         <v>511</v>
       </c>
       <c r="C515" s="1">
-        <v>44222</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
@@ -7640,7 +7639,7 @@
         <v>512</v>
       </c>
       <c r="C516" s="1">
-        <v>44223</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
@@ -7651,7 +7650,7 @@
         <v>513</v>
       </c>
       <c r="C517" s="1">
-        <v>44224</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
@@ -7662,7 +7661,7 @@
         <v>514</v>
       </c>
       <c r="C518" s="1">
-        <v>44225</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
@@ -7673,7 +7672,7 @@
         <v>515</v>
       </c>
       <c r="C519" s="1">
-        <v>44226</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
@@ -7684,7 +7683,7 @@
         <v>516</v>
       </c>
       <c r="C520" s="1">
-        <v>44227</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
@@ -7695,7 +7694,7 @@
         <v>517</v>
       </c>
       <c r="C521" s="1">
-        <v>44228</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
@@ -7706,7 +7705,7 @@
         <v>518</v>
       </c>
       <c r="C522" s="1">
-        <v>44229</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
@@ -7717,7 +7716,7 @@
         <v>519</v>
       </c>
       <c r="C523" s="1">
-        <v>44230</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
@@ -7728,7 +7727,7 @@
         <v>520</v>
       </c>
       <c r="C524" s="1">
-        <v>44231</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
@@ -7739,7 +7738,7 @@
         <v>521</v>
       </c>
       <c r="C525" s="1">
-        <v>44232</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
@@ -7750,7 +7749,7 @@
         <v>522</v>
       </c>
       <c r="C526" s="1">
-        <v>44233</v>
+        <v>43738</v>
       </c>
     </row>
   </sheetData>
